--- a/utilities/Excel_Sheets/Products/CYB_MICA.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_MICA.xlsx
@@ -694,7 +694,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -769,7 +769,8 @@
         <v>1</v>
       </c>
       <c r="C2" s="9">
-        <v>43132</v>
+        <f ca="1">TODAY()</f>
+        <v>43214</v>
       </c>
       <c r="D2" s="4">
         <v>7</v>
@@ -950,7 +951,7 @@
       </c>
       <c r="C10" s="10">
         <f ca="1">TODAY()</f>
-        <v>43140</v>
+        <v>43214</v>
       </c>
       <c r="D10" s="7">
         <v>2</v>
@@ -1041,7 +1042,7 @@
       </c>
       <c r="C14" s="9">
         <f ca="1">TODAY()</f>
-        <v>43140</v>
+        <v>43214</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -1087,7 +1088,7 @@
       </c>
       <c r="C16" s="10">
         <f ca="1">TODAY()</f>
-        <v>43140</v>
+        <v>43214</v>
       </c>
       <c r="D16" s="7">
         <v>2</v>
@@ -1133,7 +1134,7 @@
       </c>
       <c r="C18" s="9">
         <f ca="1">TODAY()</f>
-        <v>43140</v>
+        <v>43214</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -1179,7 +1180,7 @@
       </c>
       <c r="C20" s="10">
         <f ca="1">TODAY()</f>
-        <v>43140</v>
+        <v>43214</v>
       </c>
       <c r="D20" s="7">
         <v>2</v>
@@ -1225,7 +1226,7 @@
       </c>
       <c r="C22" s="9">
         <f ca="1">TODAY()</f>
-        <v>43140</v>
+        <v>43214</v>
       </c>
       <c r="D22" s="4">
         <v>12</v>
@@ -1271,7 +1272,7 @@
       </c>
       <c r="C24" s="10">
         <f ca="1">TODAY()</f>
-        <v>43140</v>
+        <v>43214</v>
       </c>
       <c r="D24" s="7">
         <v>2</v>
@@ -1317,7 +1318,7 @@
       </c>
       <c r="C26" s="9">
         <f ca="1">TODAY()</f>
-        <v>43140</v>
+        <v>43214</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -1362,7 +1363,7 @@
       </c>
       <c r="C27" s="9">
         <f t="shared" ref="C27:C37" ca="1" si="0">TODAY()</f>
-        <v>43140</v>
+        <v>43214</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -1407,7 +1408,7 @@
       </c>
       <c r="C28" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>43140</v>
+        <v>43214</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
@@ -1452,7 +1453,7 @@
       </c>
       <c r="C29" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>43140</v>
+        <v>43214</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
@@ -1497,7 +1498,7 @@
       </c>
       <c r="C30" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>43140</v>
+        <v>43214</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -1542,7 +1543,7 @@
       </c>
       <c r="C31" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>43140</v>
+        <v>43214</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -1587,7 +1588,7 @@
       </c>
       <c r="C32" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>43140</v>
+        <v>43214</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -1632,7 +1633,7 @@
       </c>
       <c r="C33" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>43140</v>
+        <v>43214</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -1677,7 +1678,7 @@
       </c>
       <c r="C34" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>43140</v>
+        <v>43214</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
@@ -1722,7 +1723,7 @@
       </c>
       <c r="C35" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>43140</v>
+        <v>43214</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -1767,7 +1768,7 @@
       </c>
       <c r="C36" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>43140</v>
+        <v>43214</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -1812,7 +1813,7 @@
       </c>
       <c r="C37" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>43140</v>
+        <v>43214</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>

--- a/utilities/Excel_Sheets/Products/CYB_MICA.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_MICA.xlsx
@@ -694,7 +694,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -770,7 +770,7 @@
       </c>
       <c r="C2" s="9">
         <f ca="1">TODAY()</f>
-        <v>43214</v>
+        <v>43245</v>
       </c>
       <c r="D2" s="4">
         <v>7</v>
@@ -951,7 +951,7 @@
       </c>
       <c r="C10" s="10">
         <f ca="1">TODAY()</f>
-        <v>43214</v>
+        <v>43245</v>
       </c>
       <c r="D10" s="7">
         <v>2</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="C14" s="9">
         <f ca="1">TODAY()</f>
-        <v>43214</v>
+        <v>43245</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="C16" s="10">
         <f ca="1">TODAY()</f>
-        <v>43214</v>
+        <v>43245</v>
       </c>
       <c r="D16" s="7">
         <v>2</v>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="C18" s="9">
         <f ca="1">TODAY()</f>
-        <v>43214</v>
+        <v>43245</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="C20" s="10">
         <f ca="1">TODAY()</f>
-        <v>43214</v>
+        <v>43245</v>
       </c>
       <c r="D20" s="7">
         <v>2</v>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="C22" s="9">
         <f ca="1">TODAY()</f>
-        <v>43214</v>
+        <v>43245</v>
       </c>
       <c r="D22" s="4">
         <v>12</v>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="C24" s="10">
         <f ca="1">TODAY()</f>
-        <v>43214</v>
+        <v>43245</v>
       </c>
       <c r="D24" s="7">
         <v>2</v>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="C26" s="9">
         <f ca="1">TODAY()</f>
-        <v>43214</v>
+        <v>43245</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C27" s="9">
         <f t="shared" ref="C27:C37" ca="1" si="0">TODAY()</f>
-        <v>43214</v>
+        <v>43245</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="C28" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>43214</v>
+        <v>43245</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="C29" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>43214</v>
+        <v>43245</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="C30" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>43214</v>
+        <v>43245</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="C31" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>43214</v>
+        <v>43245</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="C32" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>43214</v>
+        <v>43245</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -1633,7 +1633,7 @@
       </c>
       <c r="C33" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>43214</v>
+        <v>43245</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -1678,7 +1678,7 @@
       </c>
       <c r="C34" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>43214</v>
+        <v>43245</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="C35" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>43214</v>
+        <v>43245</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="C36" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>43214</v>
+        <v>43245</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="C37" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>43214</v>
+        <v>43245</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
